--- a/DB37 to Fluid Junction Box continuity testing and pinout.xlsx
+++ b/DB37 to Fluid Junction Box continuity testing and pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasper\Documents\GitHub\Hardi-Navigator-AOG-Section-Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23062141-8CEE-45C7-A03B-C7456328ACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D766073-63C6-475D-A4DB-A6280FD93879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{0CC7F428-9B08-44D3-8744-691CBAA5361B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{0CC7F428-9B08-44D3-8744-691CBAA5361B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>J1</t>
   </si>
@@ -231,6 +231,48 @@
   </si>
   <si>
     <t>Untested</t>
+  </si>
+  <si>
+    <t>S1+</t>
+  </si>
+  <si>
+    <t>S1-</t>
+  </si>
+  <si>
+    <t>S2+</t>
+  </si>
+  <si>
+    <t>S2-</t>
+  </si>
+  <si>
+    <t>S3+</t>
+  </si>
+  <si>
+    <t>S3-</t>
+  </si>
+  <si>
+    <t>S4+</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>S5+</t>
+  </si>
+  <si>
+    <t>S5-</t>
+  </si>
+  <si>
+    <t>S6+</t>
+  </si>
+  <si>
+    <t>S6-</t>
+  </si>
+  <si>
+    <t>S7+</t>
+  </si>
+  <si>
+    <t>S7-</t>
   </si>
 </sst>
 </file>
@@ -274,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,10 +327,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -630,8 +669,8 @@
   </sheetPr>
   <dimension ref="B2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E58"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,488 +738,429 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>5</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>6</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>6</v>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>7</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>7</v>
+      <c r="E28" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>8</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>8</v>
+      <c r="E29" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>9</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>9</v>
+      <c r="E30" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>10</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
+      <c r="E31" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>11</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
+      <c r="E32" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <v>12</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>13</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="1">
         <v>14</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>14</v>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <v>15</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>15</v>
+      <c r="E36" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="1">
         <v>16</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>16</v>
+      <c r="E37" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <v>17</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>17</v>
+      <c r="E38" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="1">
         <v>18</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>18</v>
+      <c r="E39" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <v>19</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>19</v>
+      <c r="E40" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>20</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <v>21</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <v>22</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="1">
         <v>23</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="1">
         <v>24</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="1">
         <v>25</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="1">
         <v>26</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="1">
         <v>27</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="1">
         <v>28</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>29</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>30</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <v>31</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <v>32</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="1">
         <v>33</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="1">
         <v>34</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="1">
         <v>35</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="1">
         <v>36</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="1">
         <v>37</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="1" t="s">
         <v>47</v>
       </c>
     </row>
